--- a/ipo-data-template/02-proc/input/survey-info.xlsx
+++ b/ipo-data-template/02-proc/input/survey-info.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24931"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Julio\Dropbox\01 AsistenteL2-COES\12 LISA\ficha-tecnica\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Julio\Dropbox\papers\padsoc\ipo-data-template\02-proc\input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB75D772-972A-4796-AE5F-57C6ED20FF07}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{227A28A7-76F4-4085-8F51-25AA10C944DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="330" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2340" yWindow="2790" windowWidth="21600" windowHeight="11505" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="survey-info" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="33">
   <si>
     <t>1.0</t>
   </si>
@@ -55,9 +55,6 @@
     <t>item</t>
   </si>
   <si>
-    <t>n</t>
-  </si>
-  <si>
     <t xml:space="preserve">1. Returned questionnaire                          </t>
   </si>
   <si>
@@ -119,6 +116,15 @@
   </si>
   <si>
     <t>1. Cuestionario recuperado</t>
+  </si>
+  <si>
+    <t>ola1</t>
+  </si>
+  <si>
+    <t>ola2</t>
+  </si>
+  <si>
+    <t>ola3</t>
   </si>
 </sst>
 </file>
@@ -437,18 +443,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="74.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>8</v>
       </c>
@@ -456,76 +462,82 @@
         <v>7</v>
       </c>
       <c r="C1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+        <v>30</v>
+      </c>
+      <c r="D1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
+        <v>24</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
         <v>25</v>
       </c>
-      <c r="B6" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+      <c r="B7" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
         <v>26</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>27</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>6</v>
@@ -545,78 +557,78 @@
       <selection activeCell="B2" sqref="B2:B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="2" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="8" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="9" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D10" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>
